--- a/bots/crawl_ch/output/vegi_coop_2022-12-31.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-31.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11346,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -12960,7 +12960,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15170,7 +15170,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15235,7 +15235,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15828,7 +15828,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15897,7 +15897,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15966,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16098,7 +16098,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16240,7 +16240,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16723,7 +16723,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16847,7 +16847,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17058,7 +17058,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17630,7 +17630,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17764,7 +17764,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17906,7 +17906,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18259,7 +18259,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18758,7 +18758,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18827,7 +18827,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18896,7 +18896,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19103,7 +19103,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19314,7 +19314,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19448,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19655,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -19939,7 +19939,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20219,7 +20219,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20700,7 +20700,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20919,7 +20919,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -20982,7 +20982,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21404,7 +21404,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21469,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22654,7 +22654,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22719,7 +22719,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22788,7 +22788,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23212,7 +23212,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23504,7 +23504,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -23967,7 +23967,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24101,7 +24101,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24164,7 +24164,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24302,7 +24302,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24436,7 +24436,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24578,7 +24578,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24714,7 +24714,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24860,7 +24860,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -24984,7 +24984,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25053,7 +25053,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25118,7 +25118,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25264,7 +25264,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25337,7 +25337,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25406,7 +25406,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25544,7 +25544,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25613,7 +25613,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25751,7 +25751,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -25968,7 +25968,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26037,7 +26037,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26106,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26175,7 +26175,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26248,7 +26248,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26321,7 +26321,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26388,7 +26388,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26530,7 +26530,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26865,7 +26865,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -26938,7 +26938,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27003,7 +27003,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27068,7 +27068,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27214,7 +27214,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27360,7 +27360,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27429,7 +27429,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27502,7 +27502,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27644,7 +27644,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27762,7 +27762,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27835,7 +27835,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27904,7 +27904,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28050,7 +28050,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28119,7 +28119,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28184,7 +28184,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28324,7 +28324,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28397,7 +28397,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28543,7 +28543,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28612,7 +28612,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28754,7 +28754,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28823,7 +28823,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -28961,7 +28961,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29034,7 +29034,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29107,7 +29107,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29249,7 +29249,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29320,7 +29320,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29466,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29535,7 +29535,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29677,7 +29677,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29819,7 +29819,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29892,7 +29892,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30030,7 +30030,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30093,7 +30093,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30166,7 +30166,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30219,7 +30219,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30288,7 +30288,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30361,7 +30361,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30434,7 +30434,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30572,7 +30572,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30637,7 +30637,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30690,7 +30690,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30836,7 +30836,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30909,7 +30909,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -30982,7 +30982,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31128,7 +31128,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31270,7 +31270,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31339,7 +31339,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31481,7 +31481,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31548,7 +31548,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31690,7 +31690,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31763,7 +31763,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31907,7 +31907,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -31980,7 +31980,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32047,7 +32047,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32110,7 +32110,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32183,7 +32183,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32252,7 +32252,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32325,7 +32325,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32394,7 +32394,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32467,7 +32467,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32540,7 +32540,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32686,7 +32686,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32759,7 +32759,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32824,7 +32824,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32893,7 +32893,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -32958,7 +32958,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33023,7 +33023,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33086,7 +33086,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33224,7 +33224,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33370,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33441,7 +33441,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33508,7 +33508,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33573,7 +33573,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33646,7 +33646,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33788,7 +33788,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -33999,7 +33999,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34068,7 +34068,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34125,7 +34125,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34194,7 +34194,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34336,7 +34336,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34409,7 +34409,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34478,7 +34478,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34551,7 +34551,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34614,7 +34614,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34750,7 +34750,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34815,7 +34815,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34888,7 +34888,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -34953,7 +34953,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35026,7 +35026,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35099,7 +35099,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35162,7 +35162,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35229,7 +35229,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35298,7 +35298,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35371,7 +35371,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35444,7 +35444,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35515,7 +35515,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35586,7 +35586,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35659,7 +35659,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35805,7 +35805,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35856,7 +35856,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35925,7 +35925,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -35998,7 +35998,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36071,7 +36071,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36144,7 +36144,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36209,7 +36209,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36278,7 +36278,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36349,7 +36349,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36422,7 +36422,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36495,7 +36495,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36568,7 +36568,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36633,7 +36633,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36696,7 +36696,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36767,7 +36767,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>
@@ -36834,7 +36834,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-31 06:51:13</t>
+          <t>2022-12-31 12:56:21</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/vegi_coop_2022-12-31.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-31.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5256,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8186,7 +8186,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11346,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12564,7 +12564,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12617,7 +12617,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12822,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -12960,7 +12960,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14151,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14216,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14691,7 +14691,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14756,7 +14756,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15170,7 +15170,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15235,7 +15235,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15633,7 +15633,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15698,7 +15698,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15763,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15828,7 +15828,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15897,7 +15897,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15966,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16098,7 +16098,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16240,7 +16240,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16654,7 +16654,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16723,7 +16723,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16847,7 +16847,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16916,7 +16916,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17058,7 +17058,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17630,7 +17630,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17764,7 +17764,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17906,7 +17906,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18121,7 +18121,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18259,7 +18259,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18328,7 +18328,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18616,7 +18616,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18758,7 +18758,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18827,7 +18827,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18896,7 +18896,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -18969,7 +18969,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19034,7 +19034,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19103,7 +19103,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19168,7 +19168,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19314,7 +19314,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19448,7 +19448,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19655,7 +19655,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19870,7 +19870,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -19939,7 +19939,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20219,7 +20219,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20566,7 +20566,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20700,7 +20700,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20773,7 +20773,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20919,7 +20919,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -20982,7 +20982,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21124,7 +21124,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21193,7 +21193,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21404,7 +21404,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21469,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21534,7 +21534,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21607,7 +21607,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22313,7 +22313,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22587,7 +22587,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22654,7 +22654,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22719,7 +22719,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22788,7 +22788,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23149,7 +23149,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23212,7 +23212,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23285,7 +23285,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23431,7 +23431,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23504,7 +23504,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23569,7 +23569,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23622,7 +23622,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23691,7 +23691,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23760,7 +23760,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -23967,7 +23967,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24101,7 +24101,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24164,7 +24164,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24302,7 +24302,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24371,7 +24371,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24436,7 +24436,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24578,7 +24578,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24641,7 +24641,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24714,7 +24714,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24860,7 +24860,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24911,7 +24911,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -24984,7 +24984,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25053,7 +25053,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25118,7 +25118,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25191,7 +25191,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25264,7 +25264,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25337,7 +25337,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25406,7 +25406,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25479,7 +25479,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25544,7 +25544,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25613,7 +25613,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25751,7 +25751,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -25968,7 +25968,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26037,7 +26037,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26106,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26175,7 +26175,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26248,7 +26248,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26311,7 +26311,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen 2.20 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Mungbohnen-Sprossen - Online kein Bestand 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -26321,7 +26321,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26388,7 +26388,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26461,7 +26461,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26530,7 +26530,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26796,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26865,7 +26865,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -26938,7 +26938,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27003,7 +27003,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27068,7 +27068,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27141,7 +27141,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27214,7 +27214,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27287,7 +27287,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27360,7 +27360,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27429,7 +27429,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27502,7 +27502,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27575,7 +27575,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27644,7 +27644,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27713,7 +27713,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27762,7 +27762,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27835,7 +27835,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27904,7 +27904,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28050,7 +28050,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28119,7 +28119,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28184,7 +28184,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28324,7 +28324,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28397,7 +28397,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28543,7 +28543,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28612,7 +28612,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28754,7 +28754,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28823,7 +28823,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -28961,7 +28961,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29034,7 +29034,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29107,7 +29107,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29249,7 +29249,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29320,7 +29320,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29466,7 +29466,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29535,7 +29535,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29677,7 +29677,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29819,7 +29819,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29892,7 +29892,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30030,7 +30030,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30093,7 +30093,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30166,7 +30166,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30219,7 +30219,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30288,7 +30288,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30361,7 +30361,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30434,7 +30434,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30507,7 +30507,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30572,7 +30572,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30637,7 +30637,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30690,7 +30690,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30763,7 +30763,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30836,7 +30836,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30909,7 +30909,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -30982,7 +30982,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31055,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31128,7 +31128,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31270,7 +31270,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31339,7 +31339,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31412,7 +31412,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31481,7 +31481,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31548,7 +31548,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31621,7 +31621,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31690,7 +31690,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31763,7 +31763,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31834,7 +31834,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31907,7 +31907,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -31980,7 +31980,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32047,7 +32047,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32110,7 +32110,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32183,7 +32183,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32252,7 +32252,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32325,7 +32325,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32394,7 +32394,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32467,7 +32467,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32540,7 +32540,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32613,7 +32613,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32686,7 +32686,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32759,7 +32759,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32824,7 +32824,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32893,7 +32893,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -32958,7 +32958,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33023,7 +33023,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33086,7 +33086,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33155,7 +33155,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33224,7 +33224,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33297,7 +33297,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33370,7 +33370,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33441,7 +33441,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33508,7 +33508,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33573,7 +33573,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33646,7 +33646,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33788,7 +33788,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33934,7 +33934,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -33999,7 +33999,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34068,7 +34068,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34125,7 +34125,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34194,7 +34194,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34267,7 +34267,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34336,7 +34336,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34409,7 +34409,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34478,7 +34478,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34551,7 +34551,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34614,7 +34614,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34685,7 +34685,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34750,7 +34750,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34815,7 +34815,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34888,7 +34888,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -34953,7 +34953,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35026,7 +35026,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35099,7 +35099,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35162,7 +35162,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35229,7 +35229,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35298,7 +35298,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35371,7 +35371,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35444,7 +35444,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35515,7 +35515,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35586,7 +35586,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35659,7 +35659,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35805,7 +35805,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35856,7 +35856,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35925,7 +35925,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -35998,7 +35998,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36061,7 +36061,7 @@
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>Yolo Crunchies 6.95 Schweizer Franken</t>
+          <t>Yolo Crunchies - Online kein Bestand 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N518" t="inlineStr">
@@ -36071,7 +36071,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36144,7 +36144,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36209,7 +36209,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36278,7 +36278,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36349,7 +36349,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36422,7 +36422,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36495,7 +36495,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36568,7 +36568,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36633,7 +36633,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36696,7 +36696,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36767,7 +36767,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
@@ -36834,7 +36834,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-31 12:56:21</t>
+          <t>2022-12-31 20:50:57</t>
         </is>
       </c>
     </row>
